--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,6 +135,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>GENERAL-POPULATION</t>
+  </si>
+  <si>
+    <t>General Population</t>
+  </si>
+  <si>
     <t>MSM</t>
   </si>
   <si>
@@ -150,7 +156,10 @@
     <t>PWUD</t>
   </si>
   <si>
-    <t>transgender</t>
+    <t>TRANSGENDER</t>
+  </si>
+  <si>
+    <t>Transgender</t>
   </si>
 </sst>
 </file>
@@ -459,7 +468,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +495,9 @@
       <c r="B2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
@@ -494,9 +505,11 @@
         <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
@@ -504,9 +517,11 @@
         <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
@@ -514,9 +529,11 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
@@ -524,9 +541,11 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
@@ -534,10 +553,24 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T07:55:33+00:00</t>
+    <t>2021-10-01T07:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-key-population.xlsx
+++ b/CodeSystem-cs-key-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
